--- a/src/main/resources/templates/standard_hourly.xlsx
+++ b/src/main/resources/templates/standard_hourly.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forbes/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forbes/dev/jenny/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3145B86-9045-C74A-B247-5A2E95479DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DB6266-A788-A44E-A17C-BA5FE12F9C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -120,25 +120,7 @@
     <t>Daily Total</t>
   </si>
   <si>
-    <t>Hourly Rate</t>
-  </si>
-  <si>
-    <t>OT Rate</t>
-  </si>
-  <si>
     <t>Expenses</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Chuck Norris solved the Travelling Salesman problem in O(1) time.</t>
-  </si>
-  <si>
-    <t>Chuck Norris never gets a syntax error. Instead, the language gets a DoesNotConformToChuck error.</t>
-  </si>
-  <si>
-    <t>testt</t>
   </si>
 </sst>
 </file>
@@ -147,7 +129,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -275,58 +257,52 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Currency 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -338,21 +314,7 @@
     <cellStyle name="Normal 3 3" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Note 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -758,109 +720,70 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="13.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="16" width="4.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="16" width="4.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="16" width="4.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="16" width="6.1640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="16" width="7.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="16" width="10.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="16" width="8.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="16" width="5.1640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="16" width="8.5" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="16" width="7.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="16" width="7.83203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="16" width="8.83203125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="16" width="6.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="16" width="7.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="16" width="6.1640625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="16" width="5.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="16" width="15.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="17" width="4.1640625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="16" width="6.83203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="16" width="9.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="16" width="6.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="16" width="5.33203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="16" width="5.5" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="16" width="6.83203125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="16" width="10.5" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="16" width="12.6640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="16" width="8.83203125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="2" width="5.33203125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="16" width="9.33203125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="16" width="10.6640625" collapsed="true"/>
-    <col min="32" max="33" style="3" width="8.83203125" collapsed="true"/>
-    <col min="34" max="16384" style="14" width="8.83203125" collapsed="true"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4.6640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.33203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.1640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.33203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.33203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.1640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="7.6640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="7.83203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.83203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.6640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.1640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="4.1640625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="6.83203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="6.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="5.33203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="5.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.83203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="10.5" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.6640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="8.83203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="5.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.33203125" style="16" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.6640625" style="16" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="8.83203125" style="3" collapsed="1"/>
+    <col min="34" max="16384" width="8.83203125" style="14" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="Z2" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" s="14"/>
+      <c r="A2"/>
+      <c r="B2"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="Z3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="14"/>
+      <c r="A3"/>
+      <c r="B3"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="Z4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA4" s="14"/>
+      <c r="A4"/>
+      <c r="B4"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="Z5" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA5" s="14"/>
     </row>
-    <row r="8" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="AC8" s="16"/>
     </row>
     <row r="9" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1242,47 +1165,28 @@
       <c r="AE17" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F13:G17 B10:B17 H10:H17 D10:F17">
-    <cfRule type="expression" dxfId="4" priority="2">
+  <conditionalFormatting sqref="B10:B17 D10:I17 F13:G17">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:G17 I10:I17">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>LEN(TRIM(G10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O10:U17">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>LEN(TRIM(O10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W10:Y17">
-    <cfRule type="expression" dxfId="1" priority="101">
+  <conditionalFormatting sqref="W10:AA17">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>LEN(TRIM(W10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z10:AA17">
-    <cfRule type="expression" dxfId="0" priority="11">
-      <formula>LEN(TRIM(Z10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D17" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>#REF!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D10:D17</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>